--- a/static/excel/sample.xlsx
+++ b/static/excel/sample.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project3\src\static\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3084622-2EAC-4868-938B-92227A55A35F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{798E6812-43F1-4538-B084-31E4F6182201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>first_name</t>
   </si>
@@ -77,13 +77,31 @@
   </si>
   <si>
     <t>Tom</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>harry@gmail.com</t>
+  </si>
+  <si>
+    <t>jane@gmail.com</t>
+  </si>
+  <si>
+    <t>alex@gmail.com</t>
+  </si>
+  <si>
+    <t>chris@gmail.com</t>
+  </si>
+  <si>
+    <t>peter@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,6 +113,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -132,16 +158,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -444,19 +473,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.42578125" customWidth="1"/>
     <col min="2" max="2" width="21.5703125" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -469,8 +499,11 @@
       <c r="D1" t="s">
         <v>13</v>
       </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -483,8 +516,11 @@
       <c r="D2">
         <v>45564</v>
       </c>
+      <c r="E2" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -497,8 +533,11 @@
       <c r="D3">
         <v>55566</v>
       </c>
+      <c r="E3" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -511,8 +550,11 @@
       <c r="D4">
         <v>4566</v>
       </c>
+      <c r="E4" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -525,8 +567,11 @@
       <c r="D5">
         <v>556644</v>
       </c>
+      <c r="E5" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -539,8 +584,18 @@
       <c r="D6">
         <v>123468</v>
       </c>
+      <c r="E6" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{0EBD6AEF-B6B9-4BA4-970C-F375A656FEBA}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{7B31EFE0-9A07-49FF-9E86-98AB1746D2D4}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{D9CF1914-57E1-4876-AB34-473468F654B7}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{6D265AE9-A328-49F6-A74A-896D7C96915A}"/>
+    <hyperlink ref="E6" r:id="rId5" xr:uid="{14A6CF80-DCE5-43E6-9C41-2442EB5DD961}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/static/excel/sample.xlsx
+++ b/static/excel/sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project3\src\static\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{798E6812-43F1-4538-B084-31E4F6182201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03A65957-F6FC-4B63-87CC-FFDD5BBCD43E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>first_name</t>
   </si>
@@ -95,6 +95,18 @@
   </si>
   <si>
     <t>peter@gmail.com</t>
+  </si>
+  <si>
+    <t>Vijay</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>m@skrt.y</t>
   </si>
 </sst>
 </file>
@@ -473,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -588,6 +600,23 @@
         <v>24</v>
       </c>
     </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7">
+        <v>123</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{0EBD6AEF-B6B9-4BA4-970C-F375A656FEBA}"/>
@@ -595,6 +624,7 @@
     <hyperlink ref="E4" r:id="rId3" xr:uid="{D9CF1914-57E1-4876-AB34-473468F654B7}"/>
     <hyperlink ref="E5" r:id="rId4" xr:uid="{6D265AE9-A328-49F6-A74A-896D7C96915A}"/>
     <hyperlink ref="E6" r:id="rId5" xr:uid="{14A6CF80-DCE5-43E6-9C41-2442EB5DD961}"/>
+    <hyperlink ref="E7" r:id="rId6" xr:uid="{96694323-1ECC-42A9-BE69-E4B74B65A15B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
